--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Stats_Plataforma" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Stats_Extraccion" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +510,11 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>extraction_status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>created_time_raw</t>
         </is>
       </c>
@@ -557,7 +556,7 @@
       <c r="H2" s="2" t="n">
         <v>46018.13240740741</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>46018</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -579,7 +578,8 @@
           <t>https://instagram.com/blancagranadoslopez</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18027064148593035', 'id': '18027064148593035', 'text': 'Mi aerolínea preferida', 'ownerUsername': 'blancagranadoslopez', 'ownerProfilePicUrl': 'https://scontent-dfw5-3.cdninstagram.com/v/t51.2885-19/440700359_2572738606247805_5383263754606927529_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GMeNRBp9r7li5CMJAKnelPHcMbVKbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
@@ -622,7 +622,7 @@
       <c r="H3" s="2" t="n">
         <v>46018.07314814815</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>46018</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -644,7 +644,8 @@
           <t>https://instagram.com/hectorhernandez8650</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18063630101237967', 'id': '18063630101237967', 'text': 'LATAM la mejor 👏👏', 'ownerUsername': 'hectorhernandez8650', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.2885-19/425817596_931083981946712_2809090581296862085_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GPx1YRlY---h0E4DAIVTGCAA5fsmbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb</t>
         </is>
@@ -687,7 +688,7 @@
       <c r="H4" s="2" t="n">
         <v>46017.92844907408</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -709,7 +710,8 @@
           <t>https://instagram.com/esteban.agudelocaro</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18068377649563007', 'id': '18068377649563007', 'text': 'Latam es una mierda , saludos', 'ownerUsername': 'esteban.agudelocaro', 'ownerProfilePicUrl': 'https://scontent-dfw5-2.cdninstagram.com/v/t51.2885-19/474511788_1142897280835305_4719369656186537094_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GKx5SBzpXnCCdQ8EAIaEwbCykX5BbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;</t>
         </is>
@@ -752,7 +754,7 @@
       <c r="H5" s="2" t="n">
         <v>46017.67373842592</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -774,7 +776,8 @@
           <t>https://instagram.com/nickmilan2016</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/17929120731027497', 'id': '17929120731027497', 'text': 'Para enfermar a la gente con azúcar', 'ownerUsername': 'nickmilan2016', 'ownerProfilePicUrl': 'https://scontent-dfw5-2.cdninstagram.com/v/t51.75761-19/501830039_17843958612497391_3029247873162095759_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GJdR6R3vE3xe-GQ-AI8sbxjkDAoqbvEnAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66940</t>
         </is>
@@ -817,7 +820,7 @@
       <c r="H6" s="2" t="n">
         <v>46017.66909722222</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -839,7 +842,8 @@
           <t>https://instagram.com/polaniamanuel207</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18120950677562281', 'id': '18120950677562281', 'text': 'Me l', 'ownerUsername': 'polaniamanuel207', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy5DM</t>
         </is>
@@ -882,7 +886,7 @@
       <c r="H7" s="2" t="n">
         <v>46014.61170138889</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -904,7 +908,8 @@
           <t>https://instagram.com/mathelasmith</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18042324656508248', 'id': '18042324656508248', 'text': 'Amo a Latam, nunca me he sentido tan bien con una aerolínea', 'ownerUsername': 'mathelasmith', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.75761-19/499915815_18458833936073145_4406800169511825538_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GCcczB25QbovNpRBAIIw4utnGSg9bvEnAQAB1501500j-ccb7-</t>
         </is>
@@ -947,7 +952,7 @@
       <c r="H8" s="2" t="n">
         <v>46014.54908564815</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -969,7 +974,8 @@
           <t>https://instagram.com/oluhen</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/17855376501592627', 'id': '17855376501592627', 'text': 'Latan... Súper detallistas.', 'ownerUsername': 'oluhen', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.2885-19/289721620_1984161525112472_3060978773810039954_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GBTNRBGYnuGalQwHAJJM9R36x3oqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2R</t>
         </is>
@@ -1012,7 +1018,7 @@
       <c r="H9" s="2" t="n">
         <v>46014.16391203704</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -1034,7 +1040,8 @@
           <t>https://instagram.com/astridhurtadoooo</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18089715406948186', 'id': '18089715406948186', 'text': 'El arequipe sabe más rico con el dedo, no pienso discutirlo 🤣🤣🤣', 'ownerUsername': 'astridhurtadoooo', 'ownerProfilePicUrl': 'https://scontent-dfw5-2.cdninstagram.com/v/t51.82787-19/574476474_18061245110630406_6877684720140931963_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GLrQPSIGOAVTmypAAHvTIT3QcXJfbmNDAQAB150150</t>
         </is>
@@ -1077,7 +1084,7 @@
       <c r="H10" s="2" t="n">
         <v>46014.12325231481</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1099,7 +1106,8 @@
           <t>https://instagram.com/aurarosasanchezramirez</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18074618984339914', 'id': '18074618984339914', 'text': 'Que bien Latan, me encanta, buena atención, refrigerio, seguridad 👍', 'ownerUsername': 'aurarosasanchezramirez', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.75761-19/491430776_18361359529182442_3612946975134759415_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GHijSh3qhFQojztBAPe5OrUhxCMybvEn</t>
         </is>
@@ -1142,7 +1150,7 @@
       <c r="H11" s="2" t="n">
         <v>46014.10447916666</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1164,7 +1172,8 @@
           <t>https://instagram.com/villavillabonilla</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18540486211003491', 'id': '18540486211003491', 'text': 'Que bonitos detalles de la aerolínea,con mi familia viajamos los primeros días de diciembre y nos dieron café de Juan Valdez, delicioso, Gracias srs Latam', 'ownerUsername': 'villavillabonilla', 'ownerProfilePicUrl': 'https://scontent-dfw6-1.cdninstagram.com/v/t51.2885-19/94010313_275557696784063_2372159670790914048_n.jpg?stp=dst</t>
         </is>
@@ -1207,7 +1216,7 @@
       <c r="H12" s="2" t="n">
         <v>46013.77385416667</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1229,7 +1238,8 @@
           <t>https://instagram.com/coyote.jorge</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/17863738989545058', 'id': '17863738989545058', 'text': 'Si quiere viajar y le que roben la maleta. Vuela en Iberia', 'ownerUsername': 'coyote.jorge', 'ownerProfilePicUrl': 'https://scontent-dfw5-2.cdninstagram.com/v/t51.2885-19/39028851_316125592268467_704971310580629504_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GHOIUwKzrqG5gx8BAAAAAACsj8gJbkULAAAB1501500j-ccb7-5&amp;ccb=</t>
         </is>
@@ -1272,7 +1282,7 @@
       <c r="H13" s="2" t="n">
         <v>46013.67394675926</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1294,7 +1304,8 @@
           <t>https://instagram.com/lilian.florez.75</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18070484618613822', 'id': '18070484618613822', 'text': 'El nombre correcto es tripulantes de cabina 🙏🙏👏', 'ownerUsername': 'lilian.florez.75', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.2885-19/117272162_694971891362104_8630724522311150703_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GGJu-QY4qbbAEngCAG-sm7o5fsZ3bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_</t>
         </is>
@@ -1337,7 +1348,7 @@
       <c r="H14" s="2" t="n">
         <v>46013.54150462963</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1359,7 +1370,8 @@
           <t>https://instagram.com/juanchoalfonsorodriguez</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18197126374336149', 'id': '18197126374336149', 'text': 'LATAM es una porquería de aerolínea.', 'ownerUsername': 'juanchoalfonsorodriguez', 'ownerProfilePicUrl': 'https://scontent-dfw5-2.cdninstagram.com/v/t51.82787-19/539178522_18136874068429557_3532991324941043664_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GBo2IyD1Si8QZG9AANDHpTXktAcxbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
         </is>
@@ -1402,7 +1414,7 @@
       <c r="H15" s="2" t="n">
         <v>46013.43877314815</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1424,7 +1436,8 @@
           <t>https://instagram.com/wansioux889</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/17904934701161333', 'id': '17904934701161333', 'text': 'LATAM es la número en Colombia, avianca, en decadencia, es la más mala', 'ownerUsername': 'wansioux889', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.2885-19/17126324_391738464546483_1134078649855639552_a.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GLRTBQGzLga4SGQBAAAAAACGDr0PYUULAAAB1501500j</t>
         </is>
@@ -1467,7 +1480,7 @@
       <c r="H16" s="2" t="n">
         <v>46013.07190972222</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1489,7 +1502,8 @@
           <t>https://instagram.com/jhonsmith8327</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18400367044120730', 'id': '18400367044120730', 'text': 'Latam', 'ownerUsername': 'jhonsmith8327', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy5DMyJ</t>
         </is>
@@ -1532,7 +1546,7 @@
       <c r="H17" s="2" t="n">
         <v>46013.07185185186</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1554,7 +1568,8 @@
           <t>https://instagram.com/jhonsmith8327</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18552674176016394', 'id': '18552674176016394', 'text': 'La mejor compañía aérea en el mundo.', 'ownerUsername': 'jhonsmith8327', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3Rh</t>
         </is>
@@ -1597,7 +1612,7 @@
       <c r="H18" s="2" t="n">
         <v>46011.84324074074</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>46011</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1619,7 +1634,8 @@
           <t>https://instagram.com/samuelrodriguez4127</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18106796005584959', 'id': '18106796005584959', 'text': 'El man que aparece al inicio del video se parece a Charlie Kirk jajajajajaja', 'ownerUsername': 'samuelrodriguez4127', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/514594330_18065846999513544_7789608455881354104_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GBoWrB7I_fjIyi5AAHjrL5iePx</t>
         </is>
@@ -1662,7 +1678,7 @@
       <c r="H19" s="2" t="n">
         <v>46011.07755787037</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>46011</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1684,7 +1700,8 @@
           <t>https://instagram.com/kawamt09</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18087613252960308', 'id': '18087613252960308', 'text': 'El man es como bobo (estaba en clase bisnes)', 'ownerUsername': 'kawamt09', 'ownerProfilePicUrl': 'https://scontent-dfw6-1.cdninstagram.com/v/t51.2885-19/470059928_3899580570359475_3315154416071497135_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GJiLBByzVqvapdoNAK9VgoFgywEubkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669</t>
         </is>
@@ -1727,7 +1744,7 @@
       <c r="H20" s="2" t="n">
         <v>46010.8866087963</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1749,7 +1766,8 @@
           <t>https://instagram.com/felipez_2116</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/17875491747377688', 'id': '17875491747377688', 'text': 'Enserio deja la familia y al perro por un arequipe jajajajajajaja', 'ownerUsername': 'felipez_2116', 'ownerProfilePicUrl': 'https://scontent-dfw5-2.cdninstagram.com/v/t51.82787-19/551323510_17980904084883887_6070217021140172358_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GHaH3CCvSbh4ieE-AEb_liY4vj1UbmNDAQAB1501500j</t>
         </is>
@@ -1792,7 +1810,7 @@
       <c r="H21" s="2" t="n">
         <v>46010.55670138889</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1814,7 +1832,8 @@
           <t>https://instagram.com/wilmardarionavalesmetrio</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18103165483668394', 'id': '18103165483668394', 'text': 'Esta aerolinea lo hqce constantemente. Y no hay control', 'ownerUsername': 'wilmardarionavalesmetrio', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3-ccb7-5&amp;ccb=7-5&amp;_nc_s</t>
         </is>
@@ -1857,7 +1876,7 @@
       <c r="H22" s="2" t="n">
         <v>46010.26703703704</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1879,7 +1898,8 @@
           <t>https://instagram.com/lunaticodonald</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/17946723413948951', 'id': '17946723413948951', 'text': '0q 10 qqqqq⁰a', 'ownerUsername': 'lunaticodonald', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/587109663_17931109011135206_7802422420406946581_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GB_V-iLmmgmnP7Q-ABVL5jPaxUdsbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3R</t>
         </is>
@@ -1922,7 +1942,7 @@
       <c r="H23" s="2" t="n">
         <v>46009.83186342593</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>46009</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1944,7 +1964,8 @@
           <t>https://instagram.com/jorgeleonardocruz23</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/', 'commentUrl': 'https://www.instagram.com/p/DSaIkwWgBhr/c/18075945536520763', 'id': '18075945536520763', 'text': 'Ni un tinto ofrecen las aerolíneas jajaja', 'ownerUsername': 'jorgeleonardocruz23', 'ownerProfilePicUrl': 'https://scontent-dfw5-3.cdninstagram.com/v/t51.75761-19/495484934_18270872482284102_2191001273841966020_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GAaAiB1GAgsAQ_lAAMRbx9UMAGgebvEnAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_</t>
         </is>
@@ -1952,7 +1973,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1961,40 +1982,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
+          <t>https://www.instagram.com/p/DSaIkwWgBhr/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>alejandro_ospina_restrepo</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Hay uno que sabe mejor, y sabe a campo</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-12-03T02:52:59.000Z</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>45994.12012731482</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>45994</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>02:52:59</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DSaIkwWgBhr/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2004,16 +2005,13 @@
       <c r="M24" t="b">
         <v>0</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>https://instagram.com/alejandro_ospina_restrepo</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17979702155943621', 'id': '17979702155943621', 'text': 'Hay uno que sabe mejor, y sabe a campo', 'ownerUsername': 'alejandro_ospina_restrepo', 'ownerProfilePicUrl': 'https://scontent-lax7-1.cdninstagram.com/v/t51.2885-19/60810273_718626331889417_3353150426198310912_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GCHknwMJDz07lo0CAAAAAACMyIgubkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
-        </is>
-      </c>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2036,28 +2034,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>uzu.aventuras</t>
+          <t>alejandro_ospina_restrepo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>El arequipe purace era mejor hasta que lo compro alpina y no lo voy a discutir</t>
+          <t>Hay uno que sabe mejor, y sabe a campo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-12-02T22:25:52.000Z</t>
+          <t>2025-12-03T02:52:59.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45993.93462962963</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>45993</v>
+        <v>45994.12012731482</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45994</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>22:25:52</t>
+          <t>02:52:59</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -2071,12 +2069,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>https://instagram.com/uzu.aventuras</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18079423709137888', 'id': '18079423709137888', 'text': 'El arequipe purace era mejor hasta que lo compro alpina y no lo voy a discutir', 'ownerUsername': 'uzu.aventuras', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/177708391_489597445726208_5201712124652568651_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GGedlwoA4NVJSb0BAEtAwhWeMTBIbkULA</t>
+          <t>https://instagram.com/alejandro_ospina_restrepo</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17979702155943621', 'id': '17979702155943621', 'text': 'Hay uno que sabe mejor, y sabe a campo', 'ownerUsername': 'alejandro_ospina_restrepo', 'ownerProfilePicUrl': 'https://scontent-lax7-1.cdninstagram.com/v/t51.2885-19/60810273_718626331889417_3353150426198310912_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GCHknwMJDz07lo0CAAAAAACMyIgubkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
         </is>
       </c>
     </row>
@@ -2101,28 +2100,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cam14201</t>
+          <t>uzu.aventuras</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Uy no uno sin plata y ustedes antojando💔😭😭</t>
+          <t>El arequipe purace era mejor hasta que lo compro alpina y no lo voy a discutir</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-02T22:25:27.000Z</t>
+          <t>2025-12-02T22:25:52.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45993.93434027778</v>
-      </c>
-      <c r="I26" s="3" t="n">
+        <v>45993.93462962963</v>
+      </c>
+      <c r="I26" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>22:25:27</t>
+          <t>22:25:52</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -2136,12 +2135,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>https://instagram.com/cam14201</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17954371344035541', 'id': '17954371344035541', 'text': 'Uy no uno sin plata y ustedes antojando💔😭😭', 'ownerUsername': 'cam14201', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/611679669_17876716299462362_7741808394990340695_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GLV9dSTapsdcx4I-AFdKiaa3bXBrbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669</t>
+          <t>https://instagram.com/uzu.aventuras</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18079423709137888', 'id': '18079423709137888', 'text': 'El arequipe purace era mejor hasta que lo compro alpina y no lo voy a discutir', 'ownerUsername': 'uzu.aventuras', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/177708391_489597445726208_5201712124652568651_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GGedlwoA4NVJSb0BAEtAwhWeMTBIbkULA</t>
         </is>
       </c>
     </row>
@@ -2166,28 +2166,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>keg_kat</t>
+          <t>cam14201</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No antojen</t>
+          <t>Uy no uno sin plata y ustedes antojando💔😭😭</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-02T17:19:57.000Z</t>
+          <t>2025-12-02T22:25:27.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45993.7221875</v>
-      </c>
-      <c r="I27" s="3" t="n">
+        <v>45993.93434027778</v>
+      </c>
+      <c r="I27" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>17:19:57</t>
+          <t>22:25:27</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2201,12 +2201,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://instagram.com/keg_kat</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18075498278215749', 'id': '18075498278215749', 'text': 'No antojen', 'ownerUsername': 'keg_kat', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/565074915_18065866094345443_3966021626387579756_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GONbriHj-Bw7zy5AAGxDWQSoIwo3bmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb</t>
+          <t>https://instagram.com/cam14201</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17954371344035541', 'id': '17954371344035541', 'text': 'Uy no uno sin plata y ustedes antojando💔😭😭', 'ownerUsername': 'cam14201', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/611679669_17876716299462362_7741808394990340695_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GLV9dSTapsdcx4I-AFdKiaa3bXBrbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669</t>
         </is>
       </c>
     </row>
@@ -2231,28 +2232,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>margaritapinkpriv</t>
+          <t>keg_kat</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Necesito la fábrica para llevar por favor, gracias 🤭</t>
+          <t>No antojen</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-12-02T15:13:05.000Z</t>
+          <t>2025-12-02T17:19:57.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45993.63408564815</v>
-      </c>
-      <c r="I28" s="3" t="n">
+        <v>45993.7221875</v>
+      </c>
+      <c r="I28" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>15:13:05</t>
+          <t>17:19:57</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2266,12 +2267,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>https://instagram.com/margaritapinkpriv</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17878294167432448', 'id': '17878294167432448', 'text': 'Necesito la fábrica para llevar por favor, gracias 🤭', 'ownerUsername': 'margaritapinkpriv', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.75761-19/513551025_17874052998377024_5686230977466192486_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GLEqnB5ALqpDW4A-AGbSsXLyjOlObvEnAQAB1501500j-ccb7-5&amp;</t>
+          <t>https://instagram.com/keg_kat</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18075498278215749', 'id': '18075498278215749', 'text': 'No antojen', 'ownerUsername': 'keg_kat', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/565074915_18065866094345443_3966021626387579756_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GONbriHj-Bw7zy5AAGxDWQSoIwo3bmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb</t>
         </is>
       </c>
     </row>
@@ -2296,32 +2298,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>matangii7</t>
+          <t>margaritapinkpriv</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>El arequipe más delicioso 🤤</t>
+          <t>Necesito la fábrica para llevar por favor, gracias 🤭</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-12-02T10:51:46.000Z</t>
+          <t>2025-12-02T15:13:05.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45993.45261574074</v>
-      </c>
-      <c r="I29" s="3" t="n">
+        <v>45993.63408564815</v>
+      </c>
+      <c r="I29" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:51:46</t>
+          <t>15:13:05</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2331,12 +2333,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://instagram.com/matangii7</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18006905162819421', 'id': '18006905162819421', 'text': 'El arequipe más delicioso 🤤', 'ownerUsername': 'matangii7', 'ownerProfilePicUrl': 'https://scontent-lax7-1.cdninstagram.com/v/t51.2885-19/468779962_1102872711278540_4684608287808866553_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GLoD8RvMLzCQDusDAPnIsupqEgNBbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5j</t>
+          <t>https://instagram.com/margaritapinkpriv</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17878294167432448', 'id': '17878294167432448', 'text': 'Necesito la fábrica para llevar por favor, gracias 🤭', 'ownerUsername': 'margaritapinkpriv', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.75761-19/513551025_17874052998377024_5686230977466192486_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GLEqnB5ALqpDW4A-AGbSsXLyjOlObvEnAQAB1501500j-ccb7-5&amp;</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2364,32 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>juanr1891</t>
+          <t>matangii7</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dándole enfermedades a más de una generación 🙌</t>
+          <t>El arequipe más delicioso 🤤</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-12-02T06:11:52.000Z</t>
+          <t>2025-12-02T10:51:46.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45993.25824074074</v>
-      </c>
-      <c r="I30" s="3" t="n">
+        <v>45993.45261574074</v>
+      </c>
+      <c r="I30" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>06:11:52</t>
+          <t>10:51:46</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2396,12 +2399,13 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>https://instagram.com/juanr1891</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18370446484085689', 'id': '18370446484085689', 'text': 'Dándole enfermedades a más de una generación 🙌', 'ownerUsername': 'juanr1891', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/491444575_1353945215844649_4501326860289623056_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GF-ZSh0pwaLvZ88EABDEfC3u7Hc_bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=</t>
+          <t>https://instagram.com/matangii7</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18006905162819421', 'id': '18006905162819421', 'text': 'El arequipe más delicioso 🤤', 'ownerUsername': 'matangii7', 'ownerProfilePicUrl': 'https://scontent-lax7-1.cdninstagram.com/v/t51.2885-19/468779962_1102872711278540_4684608287808866553_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GLoD8RvMLzCQDusDAPnIsupqEgNBbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5j</t>
         </is>
       </c>
     </row>
@@ -2426,32 +2430,32 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majoduque</t>
+          <t>juanr1891</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>Dándole enfermedades a más de una generación 🙌</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-12-02T05:47:39.000Z</t>
+          <t>2025-12-02T06:11:52.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45993.24142361111</v>
-      </c>
-      <c r="I31" s="3" t="n">
+        <v>45993.25824074074</v>
+      </c>
+      <c r="I31" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>05:47:39</t>
+          <t>06:11:52</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2461,12 +2465,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>https://instagram.com/majoduque</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18121115794529675', 'id': '18121115794529675', 'text': '😍', 'ownerUsername': 'majoduque', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/198539162_3589602374473566_6364679031103299424_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GJp31QteV2puucAMAGAfSnbb4VNYbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcG</t>
+          <t>https://instagram.com/juanr1891</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18370446484085689', 'id': '18370446484085689', 'text': 'Dándole enfermedades a más de una generación 🙌', 'ownerUsername': 'juanr1891', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/491444575_1353945215844649_4501326860289623056_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GF-ZSh0pwaLvZ88EABDEfC3u7Hc_bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=</t>
         </is>
       </c>
     </row>
@@ -2491,32 +2496,32 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cdaniel.medina</t>
+          <t>majoduque</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Es mejor el de Alquería o proleche</t>
+          <t>😍</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-12-02T04:51:29.000Z</t>
+          <t>2025-12-02T05:47:39.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45993.20241898148</v>
-      </c>
-      <c r="I32" s="3" t="n">
+        <v>45993.24142361111</v>
+      </c>
+      <c r="I32" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>04:51:29</t>
+          <t>05:47:39</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2526,12 +2531,13 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>https://instagram.com/cdaniel.medina</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17929217946149845', 'id': '17929217946149845', 'text': 'Es mejor el de Alquería o proleche', 'ownerUsername': 'cdaniel.medina', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/561783173_18076036778037530_8349109405161105200_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GIUhfCEaERpHDzhAADAngL3E-t1zbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66940</t>
+          <t>https://instagram.com/majoduque</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18121115794529675', 'id': '18121115794529675', 'text': '😍', 'ownerUsername': 'majoduque', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/198539162_3589602374473566_6364679031103299424_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GJp31QteV2puucAMAGAfSnbb4VNYbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcG</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2562,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>hernandogaleanogarcia</t>
+          <t>cdaniel.medina</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Amén</t>
+          <t>Es mejor el de Alquería o proleche</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-12-01T04:11:36.000Z</t>
+          <t>2025-12-02T04:51:29.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45992.17472222223</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>45992</v>
+        <v>45993.20241898148</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45993</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>04:11:36</t>
+          <t>04:51:29</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2591,12 +2597,13 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://instagram.com/hernandogaleanogarcia</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17892718653371384', 'id': '17892718653371384', 'text': 'Amén', 'ownerUsername': 'hernandogaleanogarcia', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/279526727_104261188910245_1407025972044821312_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GEc9qRCl-CAz014AAEDzerWqwoYTbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6</t>
+          <t>https://instagram.com/cdaniel.medina</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17929217946149845', 'id': '17929217946149845', 'text': 'Es mejor el de Alquería o proleche', 'ownerUsername': 'cdaniel.medina', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/561783173_18076036778037530_8349109405161105200_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GIUhfCEaERpHDzhAADAngL3E-t1zbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66940</t>
         </is>
       </c>
     </row>
@@ -2621,32 +2628,32 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>nanis.162008</t>
+          <t>hernandogaleanogarcia</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>El mejor arequipe</t>
+          <t>Amén</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-11-30T03:08:49.000Z</t>
+          <t>2025-12-01T04:11:36.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45991.13112268518</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>45991</v>
+        <v>45992.17472222223</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>03:08:49</t>
+          <t>04:11:36</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2656,12 +2663,13 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://instagram.com/nanis.162008</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18064969796167895', 'id': '18064969796167895', 'text': 'El mejor arequipe', 'ownerUsername': 'nanis.162008', 'ownerProfilePicUrl': 'https://scontent-lax7-1.cdninstagram.com/v/t51.75761-19/509631601_18466716736072688_3259244694860338298_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GHFcYB7wqziLYZtBAHoUOiHIKTstbvEnAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX</t>
+          <t>https://instagram.com/hernandogaleanogarcia</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17892718653371384', 'id': '17892718653371384', 'text': 'Amén', 'ownerUsername': 'hernandogaleanogarcia', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/279526727_104261188910245_1407025972044821312_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GEc9qRCl-CAz014AAEDzerWqwoYTbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6</t>
         </is>
       </c>
     </row>
@@ -2686,28 +2694,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>alefargor</t>
+          <t>nanis.162008</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>El mejor, Alpina es Alpina!</t>
+          <t>El mejor arequipe</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-11-30T02:50:22.000Z</t>
+          <t>2025-11-30T03:08:49.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45991.11831018519</v>
-      </c>
-      <c r="I35" s="3" t="n">
+        <v>45991.13112268518</v>
+      </c>
+      <c r="I35" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>02:50:22</t>
+          <t>03:08:49</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2721,12 +2729,13 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://instagram.com/alefargor</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18022699097783994', 'id': '18022699097783994', 'text': 'El mejor, Alpina es Alpina!', 'ownerUsername': 'alefargor', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/591126039_18550446730047947_2460546094719047785_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GBfeOyPL8cRziOdBAGkYNPminSUibmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW</t>
+          <t>https://instagram.com/nanis.162008</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18064969796167895', 'id': '18064969796167895', 'text': 'El mejor arequipe', 'ownerUsername': 'nanis.162008', 'ownerProfilePicUrl': 'https://scontent-lax7-1.cdninstagram.com/v/t51.75761-19/509631601_18466716736072688_3259244694860338298_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GHFcYB7wqziLYZtBAHoUOiHIKTstbvEnAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX</t>
         </is>
       </c>
     </row>
@@ -2751,32 +2760,32 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sophhowo</t>
+          <t>alefargor</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mi anuncio favorito:</t>
+          <t>El mejor, Alpina es Alpina!</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-11-30T00:23:28.000Z</t>
+          <t>2025-11-30T02:50:22.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45991.01629629629</v>
-      </c>
-      <c r="I36" s="3" t="n">
+        <v>45991.11831018519</v>
+      </c>
+      <c r="I36" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:23:28</t>
+          <t>02:50:22</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2786,12 +2795,13 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://instagram.com/sophhowo</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17886898101399865', 'id': '17886898101399865', 'text': 'Mi anuncio favorito:', 'ownerUsername': 'sophhowo', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/591177254_17976615386957841_104538973710665489_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GCamPCMRSGfuot0-ABFHNYmkZXMBbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3R</t>
+          <t>https://instagram.com/alefargor</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18022699097783994', 'id': '18022699097783994', 'text': 'El mejor, Alpina es Alpina!', 'ownerUsername': 'alefargor', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/591126039_18550446730047947_2460546094719047785_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GBfeOyPL8cRziOdBAGkYNPminSUibmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2826,32 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>natalyportsman2</t>
+          <t>sophhowo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No es el de la voz de rimas para mal pensandos?</t>
+          <t>Mi anuncio favorito:</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-11-29T22:31:11.000Z</t>
+          <t>2025-11-30T00:23:28.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45990.93832175926</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>45990</v>
+        <v>45991.01629629629</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>22:31:11</t>
+          <t>00:23:28</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2851,12 +2861,13 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://instagram.com/natalyportsman2</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17991495755731224', 'id': '17991495755731224', 'text': 'No es el de la voz de rimas para mal pensandos?', 'ownerUsername': 'natalyportsman2', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/476932042_515125814510382_2785950926030584318_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GMpnbRwuQzATgdQBAP45uUubr6kmbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
+          <t>https://instagram.com/sophhowo</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17886898101399865', 'id': '17886898101399865', 'text': 'Mi anuncio favorito:', 'ownerUsername': 'sophhowo', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/591177254_17976615386957841_104538973710665489_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GCamPCMRSGfuot0-ABFHNYmkZXMBbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3R</t>
         </is>
       </c>
     </row>
@@ -2881,32 +2892,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>marcejotatruji</t>
+          <t>natalyportsman2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>No es el de la voz de rimas para mal pensandos?</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-11-29T02:31:11.000Z</t>
+          <t>2025-11-29T22:31:11.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45990.10498842593</v>
-      </c>
-      <c r="I38" s="3" t="n">
+        <v>45990.93832175926</v>
+      </c>
+      <c r="I38" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>02:31:11</t>
+          <t>22:31:11</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2916,12 +2927,13 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://instagram.com/marcejotatruji</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17950976379026544', 'id': '17950976379026544', 'text': '😍', 'ownerUsername': 'marcejotatruji', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/606462884_18558987646051439_7725412147044930724_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GKTjJSRvpAgKTe9BAKTUGbBqLTZrbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2Z</t>
+          <t>https://instagram.com/natalyportsman2</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17991495755731224', 'id': '17991495755731224', 'text': 'No es el de la voz de rimas para mal pensandos?', 'ownerUsername': 'natalyportsman2', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/476932042_515125814510382_2785950926030584318_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GMpnbRwuQzATgdQBAP45uUubr6kmbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
         </is>
       </c>
     </row>
@@ -2946,32 +2958,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fabian_20022</t>
+          <t>marcejotatruji</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>@diana_plazas_7 cuando regala uno</t>
+          <t>😍</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-11-28T03:10:36.000Z</t>
+          <t>2025-11-29T02:31:11.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45989.13236111111</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>45989</v>
+        <v>45990.10498842593</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45990</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>03:10:36</t>
+          <t>02:31:11</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2981,12 +2993,13 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://instagram.com/fabian_20022</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17905232433293766', 'id': '17905232433293766', 'text': '@diana_plazas_7 cuando regala uno', 'ownerUsername': 'fabian_20022', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/249282585_409523233971539_7534019230361595735_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GBnA2w5TXeOOdXQBAFcvqrSSNo5obkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=</t>
+          <t>https://instagram.com/marcejotatruji</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17950976379026544', 'id': '17950976379026544', 'text': '😍', 'ownerUsername': 'marcejotatruji', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/606462884_18558987646051439_7725412147044930724_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GKTjJSRvpAgKTe9BAKTUGbBqLTZrbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2Z</t>
         </is>
       </c>
     </row>
@@ -3011,32 +3024,32 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>johnferiado</t>
+          <t>fabian_20022</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>🤤🇨🇴</t>
+          <t>@diana_plazas_7 cuando regala uno</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-11-27T14:19:03.000Z</t>
+          <t>2025-11-28T03:10:36.000Z</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45988.5965625</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>45988</v>
+        <v>45989.13236111111</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45989</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>14:19:03</t>
+          <t>03:10:36</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3046,12 +3059,13 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://instagram.com/johnferiado</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18106375204564949', 'id': '18106375204564949', 'text': '🤤🇨🇴', 'ownerUsername': 'johnferiado', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/562051296_17968998116959948_1316657660531955733_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GOA4gCHMJrtltdY-ABXYzZIqtUUSbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2Zp</t>
+          <t>https://instagram.com/fabian_20022</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/17905232433293766', 'id': '17905232433293766', 'text': '@diana_plazas_7 cuando regala uno', 'ownerUsername': 'fabian_20022', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/249282585_409523233971539_7534019230361595735_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=111&amp;ig_cache_key=GBnA2w5TXeOOdXQBAFcvqrSSNo5obkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=</t>
         </is>
       </c>
     </row>
@@ -3076,32 +3090,32 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>irodriguez9764</t>
+          <t>johnferiado</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No tiene comparación 😍</t>
+          <t>🤤🇨🇴</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-11-27T07:59:44.000Z</t>
+          <t>2025-11-27T14:19:03.000Z</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45988.33314814815</v>
-      </c>
-      <c r="I41" s="3" t="n">
+        <v>45988.5965625</v>
+      </c>
+      <c r="I41" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>07:59:44</t>
+          <t>14:19:03</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3111,12 +3125,13 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://instagram.com/irodriguez9764</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18062333747207763', 'id': '18062333747207763', 'text': 'No tiene comparación 😍', 'ownerUsername': 'irodriguez9764', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/609969505_17975401586978402_1784447592848506102_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GGFlWyRibklSiNw-APY8CZyhocMYbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW</t>
+          <t>https://instagram.com/johnferiado</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18106375204564949', 'id': '18106375204564949', 'text': '🤤🇨🇴', 'ownerUsername': 'johnferiado', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/562051296_17968998116959948_1316657660531955733_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GOA4gCHMJrtltdY-ABXYzZIqtUUSbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2Zp</t>
         </is>
       </c>
     </row>
@@ -3141,32 +3156,32 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ana_637372</t>
+          <t>irodriguez9764</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Es muy rico lo paso comprando</t>
+          <t>No tiene comparación 😍</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-11-27T03:27:15.000Z</t>
+          <t>2025-11-27T07:59:44.000Z</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45988.14392361111</v>
-      </c>
-      <c r="I42" s="3" t="n">
+        <v>45988.33314814815</v>
+      </c>
+      <c r="I42" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>03:27:15</t>
+          <t>07:59:44</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3176,12 +3191,13 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://instagram.com/ana_637372</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18081752180112107', 'id': '18081752180112107', 'text': 'Es muy rico lo paso comprando', 'ownerUsername': 'ana_637372', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.75761-19/499400681_17953883198951162_1652106196985632830_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=107&amp;ig_cache_key=GOk-xB36jmku9sg-AD7YjDrVde0WbvEnAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>https://instagram.com/irodriguez9764</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18062333747207763', 'id': '18062333747207763', 'text': 'No tiene comparación 😍', 'ownerUsername': 'irodriguez9764', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.82787-19/609969505_17975401586978402_1784447592848506102_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GGFlWyRibklSiNw-APY8CZyhocMYbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW</t>
         </is>
       </c>
     </row>
@@ -3206,32 +3222,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>drawing_rubio4726</t>
+          <t>ana_637372</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pablo de los Backyardigans?</t>
+          <t>Es muy rico lo paso comprando</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-11-27T00:57:43.000Z</t>
+          <t>2025-11-27T03:27:15.000Z</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45988.04008101852</v>
-      </c>
-      <c r="I43" s="3" t="n">
+        <v>45988.14392361111</v>
+      </c>
+      <c r="I43" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>00:57:43</t>
+          <t>03:27:15</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3241,12 +3257,13 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://instagram.com/drawing_rubio4726</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18018675833789473', 'id': '18018675833789473', 'text': 'Pablo de los Backyardigans?', 'ownerUsername': 'drawing_rubio4726', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/337352024_234992132345225_4024800981394136458_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFiVGxSJzZJeudUAAIodpBMr99o3bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=e</t>
+          <t>https://instagram.com/ana_637372</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18081752180112107', 'id': '18081752180112107', 'text': 'Es muy rico lo paso comprando', 'ownerUsername': 'ana_637372', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.75761-19/499400681_17953883198951162_1652106196985632830_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=107&amp;ig_cache_key=GOk-xB36jmku9sg-AD7YjDrVde0WbvEnAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -3271,287 +3288,242 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>drawing_rubio4726</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Pablo de los Backyardigans?</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-11-27T00:57:43.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45988.04008101852</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>00:57:43</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/drawing_rubio4726</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18018675833789473', 'id': '18018675833789473', 'text': 'Pablo de los Backyardigans?', 'ownerUsername': 'drawing_rubio4726', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/337352024_234992132345225_4024800981394136458_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFiVGxSJzZJeudUAAIodpBMr99o3bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=e</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>juan_osorio16_</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Con razón se queda todo en la tapa, si lo empacan Boca abajo 🤣</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>2025-11-27T00:25:59.000Z</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H45" s="2" t="n">
         <v>45988.01804398148</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>45988</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>00:25:59</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="K45" t="n">
         <v>2</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>https://instagram.com/juan_osorio16_</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/', 'commentUrl': 'https://www.instagram.com/p/DRiT7h1gO2m/c/18095012077883601', 'id': '18095012077883601', 'text': 'Con razón se queda todo en la tapa, si lo empacan Boca abajo 🤣', 'ownerUsername': 'juan_osorio16_', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/581447429_18408239191190703_4406320795129133672_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GAUvqCKvbO4tMmZBAGi6FuBqZSY9bmNDAQAB1501500j-</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Primera_Extraccion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ultima_Extraccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DSaIkwWgBhr/</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>46009.83186342593</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>46018.13240740741</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="46">
+      <c r="A46" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>43</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45988.01804398148</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45994.12012731482</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Posts</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_Likes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E2" t="n">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>total_attempts</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>no_comments</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>invalid_comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRiT7h1gO2m/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DSnPl7mgFk-/#advertiser</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DSnPl7mgFk-/#advertiser</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DSnPlKqgHU7/#advertiser</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DSnPlKqgHU7/#advertiser</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,82 +426,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>post_number</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>platform</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>post_url</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>post_url_original</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>author_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>comment_text</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>created_time</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>created_time_processed</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>fecha_comentario</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>hora_comentario</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>likes_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>replies_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_reply</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>author_url</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>extraction_status</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>created_time_raw</t>
         </is>
@@ -553,10 +541,10 @@
           <t>2025-12-27T03:10:40.000Z</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>46018.13240740741</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>46018</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -619,10 +607,10 @@
           <t>2025-12-27T01:45:20.000Z</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>46018.07314814815</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>46018</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -685,10 +673,10 @@
           <t>2025-12-26T22:16:58.000Z</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>46017.92844907408</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>46017</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -751,10 +739,10 @@
           <t>2025-12-26T16:10:11.000Z</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>46017.67373842592</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>46017</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -817,10 +805,10 @@
           <t>2025-12-26T16:03:30.000Z</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>46017.66909722222</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>46017</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -883,10 +871,10 @@
           <t>2025-12-23T14:40:51.000Z</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <v>46014.61170138889</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>46014</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -949,10 +937,10 @@
           <t>2025-12-23T13:10:41.000Z</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <v>46014.54908564815</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>46014</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -1015,10 +1003,10 @@
           <t>2025-12-23T03:56:02.000Z</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <v>46014.16391203704</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>46014</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -1081,10 +1069,10 @@
           <t>2025-12-23T02:57:29.000Z</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="1" t="n">
         <v>46014.12325231481</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <v>46014</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1147,10 +1135,10 @@
           <t>2025-12-23T02:30:27.000Z</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="1" t="n">
         <v>46014.10447916666</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>46014</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1213,10 +1201,10 @@
           <t>2025-12-22T18:34:21.000Z</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="1" t="n">
         <v>46013.77385416667</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1279,10 +1267,10 @@
           <t>2025-12-22T16:10:29.000Z</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="1" t="n">
         <v>46013.67394675926</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1345,10 +1333,10 @@
           <t>2025-12-22T12:59:46.000Z</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="1" t="n">
         <v>46013.54150462963</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1411,10 +1399,10 @@
           <t>2025-12-22T10:31:50.000Z</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="1" t="n">
         <v>46013.43877314815</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1477,10 +1465,10 @@
           <t>2025-12-22T01:43:33.000Z</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="1" t="n">
         <v>46013.07190972222</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1543,10 +1531,10 @@
           <t>2025-12-22T01:43:28.000Z</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="1" t="n">
         <v>46013.07185185186</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1609,10 +1597,10 @@
           <t>2025-12-20T20:14:16.000Z</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="1" t="n">
         <v>46011.84324074074</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>46011</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1675,10 +1663,10 @@
           <t>2025-12-20T01:51:41.000Z</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="1" t="n">
         <v>46011.07755787037</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>46011</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1741,10 +1729,10 @@
           <t>2025-12-19T21:16:43.000Z</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="1" t="n">
         <v>46010.8866087963</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>46010</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1807,10 +1795,10 @@
           <t>2025-12-19T13:21:39.000Z</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="1" t="n">
         <v>46010.55670138889</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <v>46010</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1873,10 +1861,10 @@
           <t>2025-12-19T06:24:32.000Z</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="1" t="n">
         <v>46010.26703703704</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <v>46010</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1939,10 +1927,10 @@
           <t>2025-12-18T19:57:53.000Z</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="1" t="n">
         <v>46009.83186342593</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <v>46009</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -2047,10 +2035,10 @@
           <t>2025-12-03T02:52:59.000Z</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="1" t="n">
         <v>45994.12012731482</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <v>45994</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -2113,10 +2101,10 @@
           <t>2025-12-02T22:25:52.000Z</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="1" t="n">
         <v>45993.93462962963</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -2179,10 +2167,10 @@
           <t>2025-12-02T22:25:27.000Z</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="1" t="n">
         <v>45993.93434027778</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -2245,10 +2233,10 @@
           <t>2025-12-02T17:19:57.000Z</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="1" t="n">
         <v>45993.7221875</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2311,10 +2299,10 @@
           <t>2025-12-02T15:13:05.000Z</t>
         </is>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="1" t="n">
         <v>45993.63408564815</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2377,10 +2365,10 @@
           <t>2025-12-02T10:51:46.000Z</t>
         </is>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="1" t="n">
         <v>45993.45261574074</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2443,10 +2431,10 @@
           <t>2025-12-02T06:11:52.000Z</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="1" t="n">
         <v>45993.25824074074</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2509,10 +2497,10 @@
           <t>2025-12-02T05:47:39.000Z</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="1" t="n">
         <v>45993.24142361111</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2575,10 +2563,10 @@
           <t>2025-12-02T04:51:29.000Z</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="1" t="n">
         <v>45993.20241898148</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2641,10 +2629,10 @@
           <t>2025-12-01T04:11:36.000Z</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="1" t="n">
         <v>45992.17472222223</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="1" t="n">
         <v>45992</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2707,10 +2695,10 @@
           <t>2025-11-30T03:08:49.000Z</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="1" t="n">
         <v>45991.13112268518</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="1" t="n">
         <v>45991</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2773,10 +2761,10 @@
           <t>2025-11-30T02:50:22.000Z</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="1" t="n">
         <v>45991.11831018519</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="1" t="n">
         <v>45991</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2839,10 +2827,10 @@
           <t>2025-11-30T00:23:28.000Z</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="1" t="n">
         <v>45991.01629629629</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="1" t="n">
         <v>45991</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2905,10 +2893,10 @@
           <t>2025-11-29T22:31:11.000Z</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="1" t="n">
         <v>45990.93832175926</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="1" t="n">
         <v>45990</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2971,10 +2959,10 @@
           <t>2025-11-29T02:31:11.000Z</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="1" t="n">
         <v>45990.10498842593</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="1" t="n">
         <v>45990</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -3037,10 +3025,10 @@
           <t>2025-11-28T03:10:36.000Z</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="1" t="n">
         <v>45989.13236111111</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="1" t="n">
         <v>45989</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -3103,10 +3091,10 @@
           <t>2025-11-27T14:19:03.000Z</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="1" t="n">
         <v>45988.5965625</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="1" t="n">
         <v>45988</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -3169,10 +3157,10 @@
           <t>2025-11-27T07:59:44.000Z</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="1" t="n">
         <v>45988.33314814815</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="1" t="n">
         <v>45988</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -3235,10 +3223,10 @@
           <t>2025-11-27T03:27:15.000Z</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="1" t="n">
         <v>45988.14392361111</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="1" t="n">
         <v>45988</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -3301,10 +3289,10 @@
           <t>2025-11-27T00:57:43.000Z</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="1" t="n">
         <v>45988.04008101852</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="1" t="n">
         <v>45988</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -3367,10 +3355,10 @@
           <t>2025-11-27T00:25:59.000Z</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="1" t="n">
         <v>45988.01804398148</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="1" t="n">
         <v>45988</v>
       </c>
       <c r="J45" t="inlineStr">
